--- a/api/src/ArchivosMulter/template.xlsx
+++ b/api/src/ArchivosMulter/template.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmspa\Henry\Proyecto-Final-ft07-04\api\src\ArchivosMulter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C20CAD44-7F91-457A-A1B7-6FE84122CF42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2E56D9-921A-4FFA-A087-BB8DD9B4113F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A04BDDBA-50E1-43B4-BE4E-7060EE18EC6D}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9360" xr2:uid="{A04BDDBA-50E1-43B4-BE4E-7060EE18EC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -49,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,7 +100,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -405,51 +396,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D51B68-6867-4731-BEBD-91A1F4B20231}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15"/>
-    <row r="5" spans="1:1" ht="15"/>
-    <row r="6" spans="1:1" ht="15"/>
-    <row r="7" spans="1:1" ht="15"/>
-    <row r="8" spans="1:1" ht="15"/>
-    <row r="9" spans="1:1" ht="15"/>
-    <row r="10" spans="1:1" ht="15"/>
-    <row r="11" spans="1:1" ht="15"/>
-    <row r="12" spans="1:1" ht="15"/>
-    <row r="13" spans="1:1" ht="15"/>
-    <row r="14" spans="1:1" ht="15"/>
-    <row r="15" spans="1:1" ht="15"/>
-    <row r="16" spans="1:1" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{E8665F71-9650-4F95-9CCB-B9D299D42088}"/>
